--- a/Plants Tool Material_Steven.xlsx
+++ b/Plants Tool Material_Steven.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\soras\Desktop\动森\改色\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{478719F0-E484-4258-902F-6495462A51A0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0676B3ED-0A48-4644-B409-EB3D02E3F671}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="90" yWindow="2130" windowWidth="18630" windowHeight="9960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="143">
   <si>
     <t>No</t>
   </si>
@@ -39,9 +39,6 @@
     <t>Plants</t>
   </si>
   <si>
-    <t>lily-of-the-valley plant</t>
-  </si>
-  <si>
     <t>apple</t>
   </si>
   <si>
@@ -72,9 +69,6 @@
     <t>white-cosmos bag</t>
   </si>
   <si>
-    <t>sapling</t>
-  </si>
-  <si>
     <t>yellow-cosmos bag</t>
   </si>
   <si>
@@ -156,165 +150,6 @@
     <t>red-mum bag</t>
   </si>
   <si>
-    <t>red-cosmos plant</t>
-  </si>
-  <si>
-    <t>white-cosmos plant</t>
-  </si>
-  <si>
-    <t>yellow-cosmos plant</t>
-  </si>
-  <si>
-    <t>pink-cosmos plant</t>
-  </si>
-  <si>
-    <t>orange-cosmos plant</t>
-  </si>
-  <si>
-    <t>black-cosmos plant</t>
-  </si>
-  <si>
-    <t>white-tulip plant</t>
-  </si>
-  <si>
-    <t>red-tulip plant</t>
-  </si>
-  <si>
-    <t>yellow-tulip plant</t>
-  </si>
-  <si>
-    <t>pink-tulip plant</t>
-  </si>
-  <si>
-    <t>orange-tulip plant</t>
-  </si>
-  <si>
-    <t>purple-tulip plant</t>
-  </si>
-  <si>
-    <t>black-tulip plant</t>
-  </si>
-  <si>
-    <t>white-pansy plant</t>
-  </si>
-  <si>
-    <t>red-pansy plant</t>
-  </si>
-  <si>
-    <t>yellow-pansy plant</t>
-  </si>
-  <si>
-    <t>orange-pansy plant</t>
-  </si>
-  <si>
-    <t>purple-pansy plant</t>
-  </si>
-  <si>
-    <t>blue-pansy plant</t>
-  </si>
-  <si>
-    <t>white-rose plant</t>
-  </si>
-  <si>
-    <t>red-rose plant</t>
-  </si>
-  <si>
-    <t>yellow-rose plant</t>
-  </si>
-  <si>
-    <t>pink-rose plant</t>
-  </si>
-  <si>
-    <t>orange-rose plant</t>
-  </si>
-  <si>
-    <t>purple-rose plant</t>
-  </si>
-  <si>
-    <t>black-rose plant</t>
-  </si>
-  <si>
-    <t>blue-rose plant</t>
-  </si>
-  <si>
-    <t>gold-rose plant</t>
-  </si>
-  <si>
-    <t>white-lily plant</t>
-  </si>
-  <si>
-    <t>red-lily plant</t>
-  </si>
-  <si>
-    <t>yellow-lily plant</t>
-  </si>
-  <si>
-    <t>pink-lily plant</t>
-  </si>
-  <si>
-    <t>orange-lily plant</t>
-  </si>
-  <si>
-    <t>black-lily plant</t>
-  </si>
-  <si>
-    <t>white-windflower plant</t>
-  </si>
-  <si>
-    <t>orange-windflower plant</t>
-  </si>
-  <si>
-    <t>blue-windflower plant</t>
-  </si>
-  <si>
-    <t>pink-windflower plant</t>
-  </si>
-  <si>
-    <t>red-windflower plant</t>
-  </si>
-  <si>
-    <t>purple-windflower plant</t>
-  </si>
-  <si>
-    <t>white-hyacinth plant</t>
-  </si>
-  <si>
-    <t>yellow-hyacinth plant</t>
-  </si>
-  <si>
-    <t>pink-hyacinth plant</t>
-  </si>
-  <si>
-    <t>orange-hyacinth plant</t>
-  </si>
-  <si>
-    <t>red-hyacinth plant</t>
-  </si>
-  <si>
-    <t>blue-hyacinth plant</t>
-  </si>
-  <si>
-    <t>purple-hyacinth plant</t>
-  </si>
-  <si>
-    <t>white-mum plant</t>
-  </si>
-  <si>
-    <t>yellow-mum plant</t>
-  </si>
-  <si>
-    <t>purple-mum plant</t>
-  </si>
-  <si>
-    <t>pink-mum plant</t>
-  </si>
-  <si>
-    <t>red-mum plant</t>
-  </si>
-  <si>
-    <t>green-mum plant</t>
-  </si>
-  <si>
     <t>Material</t>
   </si>
   <si>
@@ -616,6 +451,9 @@
   </si>
   <si>
     <t>wasp nest</t>
+  </si>
+  <si>
+    <t>heart crystal</t>
   </si>
 </sst>
 </file>
@@ -940,10 +778,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C192"/>
+  <dimension ref="A1:C138"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:C192"/>
+      <selection sqref="A1:C138"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -966,7 +804,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>4587</v>
+        <v>4588</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
@@ -977,7 +815,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>4588</v>
+        <v>4589</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
@@ -988,7 +826,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>4589</v>
+        <v>4590</v>
       </c>
       <c r="B4" t="s">
         <v>3</v>
@@ -999,7 +837,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>4590</v>
+        <v>4591</v>
       </c>
       <c r="B5" t="s">
         <v>3</v>
@@ -1010,7 +848,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>4591</v>
+        <v>4592</v>
       </c>
       <c r="B6" t="s">
         <v>3</v>
@@ -1021,7 +859,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>4592</v>
+        <v>4593</v>
       </c>
       <c r="B7" t="s">
         <v>3</v>
@@ -1032,7 +870,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>4593</v>
+        <v>4594</v>
       </c>
       <c r="B8" t="s">
         <v>3</v>
@@ -1043,7 +881,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>4594</v>
+        <v>4597</v>
       </c>
       <c r="B9" t="s">
         <v>3</v>
@@ -1054,7 +892,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>4597</v>
+        <v>4598</v>
       </c>
       <c r="B10" t="s">
         <v>3</v>
@@ -1065,7 +903,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>4598</v>
+        <v>4601</v>
       </c>
       <c r="B11" t="s">
         <v>3</v>
@@ -1076,7 +914,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>4601</v>
+        <v>4625</v>
       </c>
       <c r="B12" t="s">
         <v>3</v>
@@ -1087,7 +925,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13">
-        <v>4604</v>
+        <v>4638</v>
       </c>
       <c r="B13" t="s">
         <v>3</v>
@@ -1098,7 +936,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14">
-        <v>4625</v>
+        <v>4642</v>
       </c>
       <c r="B14" t="s">
         <v>3</v>
@@ -1109,7 +947,7 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15">
-        <v>4638</v>
+        <v>4646</v>
       </c>
       <c r="B15" t="s">
         <v>3</v>
@@ -1120,7 +958,7 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16">
-        <v>4642</v>
+        <v>4662</v>
       </c>
       <c r="B16" t="s">
         <v>3</v>
@@ -1131,7 +969,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17">
-        <v>4646</v>
+        <v>4666</v>
       </c>
       <c r="B17" t="s">
         <v>3</v>
@@ -1142,7 +980,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18">
-        <v>4662</v>
+        <v>4670</v>
       </c>
       <c r="B18" t="s">
         <v>3</v>
@@ -1153,7 +991,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19">
-        <v>4666</v>
+        <v>4683</v>
       </c>
       <c r="B19" t="s">
         <v>3</v>
@@ -1164,7 +1002,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20">
-        <v>4670</v>
+        <v>4687</v>
       </c>
       <c r="B20" t="s">
         <v>3</v>
@@ -1175,7 +1013,7 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21">
-        <v>4683</v>
+        <v>4691</v>
       </c>
       <c r="B21" t="s">
         <v>3</v>
@@ -1186,7 +1024,7 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22">
-        <v>4687</v>
+        <v>4713</v>
       </c>
       <c r="B22" t="s">
         <v>3</v>
@@ -1197,7 +1035,7 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23">
-        <v>4691</v>
+        <v>4717</v>
       </c>
       <c r="B23" t="s">
         <v>3</v>
@@ -1208,7 +1046,7 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24">
-        <v>4713</v>
+        <v>4721</v>
       </c>
       <c r="B24" t="s">
         <v>3</v>
@@ -1219,7 +1057,7 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25">
-        <v>4717</v>
+        <v>4733</v>
       </c>
       <c r="B25" t="s">
         <v>3</v>
@@ -1230,7 +1068,7 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26">
-        <v>4721</v>
+        <v>4734</v>
       </c>
       <c r="B26" t="s">
         <v>3</v>
@@ -1241,7 +1079,7 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27">
-        <v>4733</v>
+        <v>4735</v>
       </c>
       <c r="B27" t="s">
         <v>3</v>
@@ -1252,7 +1090,7 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28">
-        <v>4734</v>
+        <v>4736</v>
       </c>
       <c r="B28" t="s">
         <v>3</v>
@@ -1263,7 +1101,7 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29">
-        <v>4735</v>
+        <v>4737</v>
       </c>
       <c r="B29" t="s">
         <v>3</v>
@@ -1274,7 +1112,7 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30">
-        <v>4736</v>
+        <v>4764</v>
       </c>
       <c r="B30" t="s">
         <v>3</v>
@@ -1285,7 +1123,7 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31">
-        <v>4737</v>
+        <v>4768</v>
       </c>
       <c r="B31" t="s">
         <v>3</v>
@@ -1296,7 +1134,7 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32">
-        <v>4764</v>
+        <v>4778</v>
       </c>
       <c r="B32" t="s">
         <v>3</v>
@@ -1307,7 +1145,7 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33">
-        <v>4768</v>
+        <v>4785</v>
       </c>
       <c r="B33" t="s">
         <v>3</v>
@@ -1318,7 +1156,7 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34">
-        <v>4778</v>
+        <v>4789</v>
       </c>
       <c r="B34" t="s">
         <v>3</v>
@@ -1329,7 +1167,7 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35">
-        <v>4785</v>
+        <v>4799</v>
       </c>
       <c r="B35" t="s">
         <v>3</v>
@@ -1340,7 +1178,7 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36">
-        <v>4789</v>
+        <v>4809</v>
       </c>
       <c r="B36" t="s">
         <v>3</v>
@@ -1351,7 +1189,7 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37">
-        <v>4799</v>
+        <v>4813</v>
       </c>
       <c r="B37" t="s">
         <v>3</v>
@@ -1362,7 +1200,7 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38">
-        <v>4809</v>
+        <v>4823</v>
       </c>
       <c r="B38" t="s">
         <v>3</v>
@@ -1373,1696 +1211,1102 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39">
-        <v>4813</v>
+        <v>5437</v>
       </c>
       <c r="B39" t="s">
-        <v>3</v>
+        <v>41</v>
       </c>
       <c r="C39" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40">
-        <v>4823</v>
+        <v>5438</v>
       </c>
       <c r="B40" t="s">
-        <v>3</v>
+        <v>41</v>
       </c>
       <c r="C40" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41">
-        <v>4829</v>
+        <v>5439</v>
       </c>
       <c r="B41" t="s">
-        <v>3</v>
+        <v>41</v>
       </c>
       <c r="C41" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42">
-        <v>4831</v>
+        <v>5440</v>
       </c>
       <c r="B42" t="s">
-        <v>3</v>
+        <v>41</v>
       </c>
       <c r="C42" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43">
-        <v>4833</v>
+        <v>5441</v>
       </c>
       <c r="B43" t="s">
-        <v>3</v>
+        <v>41</v>
       </c>
       <c r="C43" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44">
-        <v>4834</v>
+        <v>5442</v>
       </c>
       <c r="B44" t="s">
-        <v>3</v>
+        <v>41</v>
       </c>
       <c r="C44" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45">
-        <v>4835</v>
+        <v>5443</v>
       </c>
       <c r="B45" t="s">
-        <v>3</v>
+        <v>41</v>
       </c>
       <c r="C45" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46">
-        <v>4836</v>
+        <v>5444</v>
       </c>
       <c r="B46" t="s">
-        <v>3</v>
+        <v>41</v>
       </c>
       <c r="C46" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47">
-        <v>4838</v>
+        <v>5445</v>
       </c>
       <c r="B47" t="s">
-        <v>3</v>
+        <v>41</v>
       </c>
       <c r="C47" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48">
-        <v>4840</v>
+        <v>5446</v>
       </c>
       <c r="B48" t="s">
-        <v>3</v>
+        <v>41</v>
       </c>
       <c r="C48" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49">
-        <v>4842</v>
+        <v>5447</v>
       </c>
       <c r="B49" t="s">
-        <v>3</v>
+        <v>41</v>
       </c>
       <c r="C49" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50">
-        <v>4843</v>
+        <v>5448</v>
       </c>
       <c r="B50" t="s">
-        <v>3</v>
+        <v>41</v>
       </c>
       <c r="C50" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51">
-        <v>4844</v>
+        <v>5449</v>
       </c>
       <c r="B51" t="s">
-        <v>3</v>
+        <v>41</v>
       </c>
       <c r="C51" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52">
-        <v>4845</v>
+        <v>5450</v>
       </c>
       <c r="B52" t="s">
-        <v>3</v>
+        <v>41</v>
       </c>
       <c r="C52" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53">
-        <v>4846</v>
+        <v>5451</v>
       </c>
       <c r="B53" t="s">
-        <v>3</v>
+        <v>41</v>
       </c>
       <c r="C53" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54">
-        <v>4848</v>
+        <v>5452</v>
       </c>
       <c r="B54" t="s">
-        <v>3</v>
+        <v>41</v>
       </c>
       <c r="C54" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55">
-        <v>4850</v>
+        <v>5453</v>
       </c>
       <c r="B55" t="s">
-        <v>3</v>
+        <v>41</v>
       </c>
       <c r="C55" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56">
-        <v>4852</v>
+        <v>5454</v>
       </c>
       <c r="B56" t="s">
-        <v>3</v>
+        <v>41</v>
       </c>
       <c r="C56" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57">
-        <v>4853</v>
+        <v>5455</v>
       </c>
       <c r="B57" t="s">
-        <v>3</v>
+        <v>41</v>
       </c>
       <c r="C57" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58">
-        <v>4854</v>
+        <v>5456</v>
       </c>
       <c r="B58" t="s">
-        <v>3</v>
+        <v>41</v>
       </c>
       <c r="C58" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59">
-        <v>4855</v>
+        <v>5457</v>
       </c>
       <c r="B59" t="s">
-        <v>3</v>
+        <v>41</v>
       </c>
       <c r="C59" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60">
-        <v>4857</v>
+        <v>5458</v>
       </c>
       <c r="B60" t="s">
-        <v>3</v>
+        <v>41</v>
       </c>
       <c r="C60" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61">
-        <v>4859</v>
+        <v>5459</v>
       </c>
       <c r="B61" t="s">
-        <v>3</v>
+        <v>41</v>
       </c>
       <c r="C61" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62">
-        <v>4861</v>
+        <v>5460</v>
       </c>
       <c r="B62" t="s">
-        <v>3</v>
+        <v>41</v>
       </c>
       <c r="C62" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63">
-        <v>4862</v>
+        <v>5461</v>
       </c>
       <c r="B63" t="s">
-        <v>3</v>
+        <v>41</v>
       </c>
       <c r="C63" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64">
-        <v>4863</v>
+        <v>5462</v>
       </c>
       <c r="B64" t="s">
-        <v>3</v>
+        <v>41</v>
       </c>
       <c r="C64" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65">
-        <v>4864</v>
+        <v>5463</v>
       </c>
       <c r="B65" t="s">
-        <v>3</v>
+        <v>41</v>
       </c>
       <c r="C65" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66">
-        <v>4865</v>
+        <v>5464</v>
       </c>
       <c r="B66" t="s">
-        <v>3</v>
+        <v>41</v>
       </c>
       <c r="C66" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67">
-        <v>4866</v>
+        <v>5465</v>
       </c>
       <c r="B67" t="s">
-        <v>3</v>
+        <v>41</v>
       </c>
       <c r="C67" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68">
-        <v>4867</v>
+        <v>5466</v>
       </c>
       <c r="B68" t="s">
-        <v>3</v>
+        <v>41</v>
       </c>
       <c r="C68" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69">
-        <v>4869</v>
+        <v>5467</v>
       </c>
       <c r="B69" t="s">
-        <v>3</v>
+        <v>41</v>
       </c>
       <c r="C69" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70">
-        <v>4871</v>
+        <v>5468</v>
       </c>
       <c r="B70" t="s">
-        <v>3</v>
+        <v>41</v>
       </c>
       <c r="C70" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71">
-        <v>4873</v>
+        <v>5469</v>
       </c>
       <c r="B71" t="s">
-        <v>3</v>
+        <v>41</v>
       </c>
       <c r="C71" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72">
-        <v>4874</v>
+        <v>5470</v>
       </c>
       <c r="B72" t="s">
-        <v>3</v>
+        <v>41</v>
       </c>
       <c r="C72" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73">
-        <v>4875</v>
+        <v>5471</v>
       </c>
       <c r="B73" t="s">
-        <v>3</v>
+        <v>41</v>
       </c>
       <c r="C73" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A74">
-        <v>4876</v>
+        <v>5472</v>
       </c>
       <c r="B74" t="s">
-        <v>3</v>
+        <v>41</v>
       </c>
       <c r="C74" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A75">
-        <v>4878</v>
+        <v>5473</v>
       </c>
       <c r="B75" t="s">
-        <v>3</v>
+        <v>41</v>
       </c>
       <c r="C75" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A76">
-        <v>4880</v>
+        <v>5474</v>
       </c>
       <c r="B76" t="s">
-        <v>3</v>
+        <v>41</v>
       </c>
       <c r="C76" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A77">
-        <v>4881</v>
+        <v>5475</v>
       </c>
       <c r="B77" t="s">
-        <v>3</v>
+        <v>41</v>
       </c>
       <c r="C77" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A78">
-        <v>4882</v>
+        <v>8840</v>
       </c>
       <c r="B78" t="s">
-        <v>3</v>
+        <v>41</v>
       </c>
       <c r="C78" t="s">
-        <v>80</v>
+        <v>138</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A79">
-        <v>4884</v>
+        <v>8841</v>
       </c>
       <c r="B79" t="s">
-        <v>3</v>
+        <v>41</v>
       </c>
       <c r="C79" t="s">
-        <v>81</v>
+        <v>139</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A80">
-        <v>4885</v>
+        <v>8842</v>
       </c>
       <c r="B80" t="s">
-        <v>3</v>
+        <v>41</v>
       </c>
       <c r="C80" t="s">
-        <v>82</v>
+        <v>140</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A81">
-        <v>4887</v>
+        <v>8843</v>
       </c>
       <c r="B81" t="s">
-        <v>3</v>
+        <v>41</v>
       </c>
       <c r="C81" t="s">
-        <v>83</v>
+        <v>141</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A82">
-        <v>4889</v>
+        <v>8845</v>
       </c>
       <c r="B82" t="s">
-        <v>3</v>
+        <v>41</v>
       </c>
       <c r="C82" t="s">
-        <v>84</v>
+        <v>142</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A83">
-        <v>4890</v>
+        <v>6254</v>
       </c>
       <c r="B83" t="s">
-        <v>3</v>
+        <v>81</v>
       </c>
       <c r="C83" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A84">
-        <v>4891</v>
+        <v>6255</v>
       </c>
       <c r="B84" t="s">
-        <v>3</v>
+        <v>81</v>
       </c>
       <c r="C84" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A85">
-        <v>4893</v>
+        <v>6256</v>
       </c>
       <c r="B85" t="s">
-        <v>3</v>
+        <v>81</v>
       </c>
       <c r="C85" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A86">
-        <v>4894</v>
+        <v>6257</v>
       </c>
       <c r="B86" t="s">
-        <v>3</v>
+        <v>81</v>
       </c>
       <c r="C86" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A87">
-        <v>4895</v>
+        <v>6258</v>
       </c>
       <c r="B87" t="s">
-        <v>3</v>
+        <v>81</v>
       </c>
       <c r="C87" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A88">
-        <v>4897</v>
+        <v>6259</v>
       </c>
       <c r="B88" t="s">
-        <v>3</v>
+        <v>81</v>
       </c>
       <c r="C88" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A89">
-        <v>4899</v>
+        <v>6260</v>
       </c>
       <c r="B89" t="s">
-        <v>3</v>
+        <v>81</v>
       </c>
       <c r="C89" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A90">
-        <v>4900</v>
+        <v>6261</v>
       </c>
       <c r="B90" t="s">
-        <v>3</v>
+        <v>81</v>
       </c>
       <c r="C90" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A91">
-        <v>4901</v>
+        <v>6262</v>
       </c>
       <c r="B91" t="s">
-        <v>3</v>
+        <v>81</v>
       </c>
       <c r="C91" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A92">
-        <v>4903</v>
+        <v>6263</v>
       </c>
       <c r="B92" t="s">
-        <v>3</v>
+        <v>81</v>
       </c>
       <c r="C92" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A93">
-        <v>4904</v>
+        <v>6264</v>
       </c>
       <c r="B93" t="s">
-        <v>3</v>
+        <v>81</v>
       </c>
       <c r="C93" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A94">
-        <v>5437</v>
+        <v>6265</v>
       </c>
       <c r="B94" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="C94" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A95">
-        <v>5438</v>
+        <v>6266</v>
       </c>
       <c r="B95" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="C95" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A96">
-        <v>5439</v>
+        <v>6267</v>
       </c>
       <c r="B96" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="C96" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A97">
-        <v>5440</v>
+        <v>6268</v>
       </c>
       <c r="B97" t="s">
+        <v>81</v>
+      </c>
+      <c r="C97" t="s">
         <v>96</v>
-      </c>
-      <c r="C97" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A98">
-        <v>5441</v>
+        <v>6269</v>
       </c>
       <c r="B98" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="C98" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A99">
-        <v>5442</v>
+        <v>6270</v>
       </c>
       <c r="B99" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="C99" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A100">
-        <v>5443</v>
+        <v>6271</v>
       </c>
       <c r="B100" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="C100" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A101">
-        <v>5444</v>
+        <v>6272</v>
       </c>
       <c r="B101" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="C101" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A102">
-        <v>5445</v>
+        <v>6273</v>
       </c>
       <c r="B102" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="C102" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A103">
-        <v>5446</v>
+        <v>6274</v>
       </c>
       <c r="B103" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="C103" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A104">
-        <v>5447</v>
+        <v>6275</v>
       </c>
       <c r="B104" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="C104" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A105">
-        <v>5448</v>
+        <v>6276</v>
       </c>
       <c r="B105" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="C105" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A106">
-        <v>5449</v>
+        <v>6277</v>
       </c>
       <c r="B106" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="C106" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A107">
-        <v>5450</v>
+        <v>6278</v>
       </c>
       <c r="B107" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="C107" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A108">
-        <v>5451</v>
+        <v>6280</v>
       </c>
       <c r="B108" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="C108" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A109">
-        <v>5452</v>
+        <v>6281</v>
       </c>
       <c r="B109" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="C109" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A110">
-        <v>5453</v>
+        <v>6282</v>
       </c>
       <c r="B110" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="C110" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A111">
-        <v>5454</v>
+        <v>6283</v>
       </c>
       <c r="B111" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="C111" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A112">
-        <v>5455</v>
+        <v>6284</v>
       </c>
       <c r="B112" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="C112" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A113">
-        <v>5456</v>
+        <v>6285</v>
       </c>
       <c r="B113" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="C113" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A114">
-        <v>5457</v>
+        <v>6287</v>
       </c>
       <c r="B114" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="C114" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A115">
-        <v>5458</v>
+        <v>6288</v>
       </c>
       <c r="B115" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="C115" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A116">
-        <v>5459</v>
+        <v>6289</v>
       </c>
       <c r="B116" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="C116" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A117">
-        <v>5460</v>
+        <v>6290</v>
       </c>
       <c r="B117" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="C117" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A118">
-        <v>5461</v>
+        <v>6291</v>
       </c>
       <c r="B118" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="C118" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A119">
-        <v>5462</v>
+        <v>6292</v>
       </c>
       <c r="B119" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="C119" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A120">
-        <v>5463</v>
+        <v>6293</v>
       </c>
       <c r="B120" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="C120" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A121">
-        <v>5464</v>
+        <v>6295</v>
       </c>
       <c r="B121" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="C121" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A122">
-        <v>5465</v>
+        <v>6296</v>
       </c>
       <c r="B122" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="C122" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A123">
-        <v>5466</v>
+        <v>6297</v>
       </c>
       <c r="B123" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="C123" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A124">
-        <v>5467</v>
+        <v>6298</v>
       </c>
       <c r="B124" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="C124" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A125">
-        <v>5468</v>
+        <v>6299</v>
       </c>
       <c r="B125" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="C125" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A126">
-        <v>5469</v>
+        <v>6300</v>
       </c>
       <c r="B126" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="C126" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A127">
-        <v>5470</v>
+        <v>6301</v>
       </c>
       <c r="B127" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="C127" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A128">
-        <v>5471</v>
+        <v>6302</v>
       </c>
       <c r="B128" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="C128" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A129">
-        <v>5472</v>
+        <v>6303</v>
       </c>
       <c r="B129" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="C129" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A130">
-        <v>5473</v>
+        <v>6304</v>
       </c>
       <c r="B130" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="C130" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A131">
-        <v>5474</v>
+        <v>6305</v>
       </c>
       <c r="B131" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="C131" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A132">
-        <v>5475</v>
+        <v>6306</v>
       </c>
       <c r="B132" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="C132" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A133">
-        <v>6254</v>
+        <v>6307</v>
       </c>
       <c r="B133" t="s">
-        <v>136</v>
+        <v>81</v>
       </c>
       <c r="C133" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A134">
-        <v>6255</v>
+        <v>6308</v>
       </c>
       <c r="B134" t="s">
-        <v>136</v>
+        <v>81</v>
       </c>
       <c r="C134" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A135">
-        <v>6256</v>
+        <v>6309</v>
       </c>
       <c r="B135" t="s">
-        <v>136</v>
+        <v>81</v>
       </c>
       <c r="C135" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A136">
-        <v>6257</v>
+        <v>6310</v>
       </c>
       <c r="B136" t="s">
-        <v>136</v>
+        <v>81</v>
       </c>
       <c r="C136" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A137">
-        <v>6258</v>
+        <v>6311</v>
       </c>
       <c r="B137" t="s">
+        <v>81</v>
+      </c>
+      <c r="C137" t="s">
         <v>136</v>
-      </c>
-      <c r="C137" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A138">
-        <v>6259</v>
+        <v>6312</v>
       </c>
       <c r="B138" t="s">
-        <v>136</v>
+        <v>81</v>
       </c>
       <c r="C138" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A139">
-        <v>6260</v>
-      </c>
-      <c r="B139" t="s">
-        <v>136</v>
-      </c>
-      <c r="C139" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A140">
-        <v>6261</v>
-      </c>
-      <c r="B140" t="s">
-        <v>136</v>
-      </c>
-      <c r="C140" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A141">
-        <v>6262</v>
-      </c>
-      <c r="B141" t="s">
-        <v>136</v>
-      </c>
-      <c r="C141" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A142">
-        <v>6263</v>
-      </c>
-      <c r="B142" t="s">
-        <v>136</v>
-      </c>
-      <c r="C142" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A143">
-        <v>6264</v>
-      </c>
-      <c r="B143" t="s">
-        <v>136</v>
-      </c>
-      <c r="C143" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A144">
-        <v>6265</v>
-      </c>
-      <c r="B144" t="s">
-        <v>136</v>
-      </c>
-      <c r="C144" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A145">
-        <v>6266</v>
-      </c>
-      <c r="B145" t="s">
-        <v>136</v>
-      </c>
-      <c r="C145" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A146">
-        <v>6267</v>
-      </c>
-      <c r="B146" t="s">
-        <v>136</v>
-      </c>
-      <c r="C146" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A147">
-        <v>6268</v>
-      </c>
-      <c r="B147" t="s">
-        <v>136</v>
-      </c>
-      <c r="C147" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A148">
-        <v>6269</v>
-      </c>
-      <c r="B148" t="s">
-        <v>136</v>
-      </c>
-      <c r="C148" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A149">
-        <v>6270</v>
-      </c>
-      <c r="B149" t="s">
-        <v>136</v>
-      </c>
-      <c r="C149" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A150">
-        <v>6271</v>
-      </c>
-      <c r="B150" t="s">
-        <v>136</v>
-      </c>
-      <c r="C150" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A151">
-        <v>6272</v>
-      </c>
-      <c r="B151" t="s">
-        <v>136</v>
-      </c>
-      <c r="C151" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A152">
-        <v>6273</v>
-      </c>
-      <c r="B152" t="s">
-        <v>136</v>
-      </c>
-      <c r="C152" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A153">
-        <v>6274</v>
-      </c>
-      <c r="B153" t="s">
-        <v>136</v>
-      </c>
-      <c r="C153" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A154">
-        <v>6275</v>
-      </c>
-      <c r="B154" t="s">
-        <v>136</v>
-      </c>
-      <c r="C154" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A155">
-        <v>6276</v>
-      </c>
-      <c r="B155" t="s">
-        <v>136</v>
-      </c>
-      <c r="C155" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A156">
-        <v>6277</v>
-      </c>
-      <c r="B156" t="s">
-        <v>136</v>
-      </c>
-      <c r="C156" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A157">
-        <v>6278</v>
-      </c>
-      <c r="B157" t="s">
-        <v>136</v>
-      </c>
-      <c r="C157" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A158">
-        <v>6280</v>
-      </c>
-      <c r="B158" t="s">
-        <v>136</v>
-      </c>
-      <c r="C158" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A159">
-        <v>6281</v>
-      </c>
-      <c r="B159" t="s">
-        <v>136</v>
-      </c>
-      <c r="C159" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A160">
-        <v>6282</v>
-      </c>
-      <c r="B160" t="s">
-        <v>136</v>
-      </c>
-      <c r="C160" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A161">
-        <v>6283</v>
-      </c>
-      <c r="B161" t="s">
-        <v>136</v>
-      </c>
-      <c r="C161" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A162">
-        <v>6284</v>
-      </c>
-      <c r="B162" t="s">
-        <v>136</v>
-      </c>
-      <c r="C162" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A163">
-        <v>6285</v>
-      </c>
-      <c r="B163" t="s">
-        <v>136</v>
-      </c>
-      <c r="C163" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A164">
-        <v>6287</v>
-      </c>
-      <c r="B164" t="s">
-        <v>136</v>
-      </c>
-      <c r="C164" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A165">
-        <v>6288</v>
-      </c>
-      <c r="B165" t="s">
-        <v>136</v>
-      </c>
-      <c r="C165" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A166">
-        <v>6289</v>
-      </c>
-      <c r="B166" t="s">
-        <v>136</v>
-      </c>
-      <c r="C166" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A167">
-        <v>6290</v>
-      </c>
-      <c r="B167" t="s">
-        <v>136</v>
-      </c>
-      <c r="C167" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A168">
-        <v>6291</v>
-      </c>
-      <c r="B168" t="s">
-        <v>136</v>
-      </c>
-      <c r="C168" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A169">
-        <v>6292</v>
-      </c>
-      <c r="B169" t="s">
-        <v>136</v>
-      </c>
-      <c r="C169" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A170">
-        <v>6293</v>
-      </c>
-      <c r="B170" t="s">
-        <v>136</v>
-      </c>
-      <c r="C170" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A171">
-        <v>6295</v>
-      </c>
-      <c r="B171" t="s">
-        <v>136</v>
-      </c>
-      <c r="C171" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A172">
-        <v>6296</v>
-      </c>
-      <c r="B172" t="s">
-        <v>136</v>
-      </c>
-      <c r="C172" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A173">
-        <v>6297</v>
-      </c>
-      <c r="B173" t="s">
-        <v>136</v>
-      </c>
-      <c r="C173" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A174">
-        <v>6298</v>
-      </c>
-      <c r="B174" t="s">
-        <v>136</v>
-      </c>
-      <c r="C174" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A175">
-        <v>6299</v>
-      </c>
-      <c r="B175" t="s">
-        <v>136</v>
-      </c>
-      <c r="C175" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A176">
-        <v>6300</v>
-      </c>
-      <c r="B176" t="s">
-        <v>136</v>
-      </c>
-      <c r="C176" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A177">
-        <v>6301</v>
-      </c>
-      <c r="B177" t="s">
-        <v>136</v>
-      </c>
-      <c r="C177" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A178">
-        <v>6302</v>
-      </c>
-      <c r="B178" t="s">
-        <v>136</v>
-      </c>
-      <c r="C178" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A179">
-        <v>6303</v>
-      </c>
-      <c r="B179" t="s">
-        <v>136</v>
-      </c>
-      <c r="C179" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A180">
-        <v>6304</v>
-      </c>
-      <c r="B180" t="s">
-        <v>136</v>
-      </c>
-      <c r="C180" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A181">
-        <v>6305</v>
-      </c>
-      <c r="B181" t="s">
-        <v>136</v>
-      </c>
-      <c r="C181" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A182">
-        <v>6306</v>
-      </c>
-      <c r="B182" t="s">
-        <v>136</v>
-      </c>
-      <c r="C182" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A183">
-        <v>6307</v>
-      </c>
-      <c r="B183" t="s">
-        <v>136</v>
-      </c>
-      <c r="C183" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A184">
-        <v>6308</v>
-      </c>
-      <c r="B184" t="s">
-        <v>136</v>
-      </c>
-      <c r="C184" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A185">
-        <v>6309</v>
-      </c>
-      <c r="B185" t="s">
-        <v>136</v>
-      </c>
-      <c r="C185" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A186">
-        <v>6310</v>
-      </c>
-      <c r="B186" t="s">
-        <v>136</v>
-      </c>
-      <c r="C186" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A187">
-        <v>6311</v>
-      </c>
-      <c r="B187" t="s">
-        <v>136</v>
-      </c>
-      <c r="C187" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A188">
-        <v>6312</v>
-      </c>
-      <c r="B188" t="s">
-        <v>136</v>
-      </c>
-      <c r="C188" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A189">
-        <v>8840</v>
-      </c>
-      <c r="B189" t="s">
-        <v>96</v>
-      </c>
-      <c r="C189" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A190">
-        <v>8841</v>
-      </c>
-      <c r="B190" t="s">
-        <v>96</v>
-      </c>
-      <c r="C190" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A191">
-        <v>8842</v>
-      </c>
-      <c r="B191" t="s">
-        <v>96</v>
-      </c>
-      <c r="C191" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A192">
-        <v>8843</v>
-      </c>
-      <c r="B192" t="s">
-        <v>96</v>
-      </c>
-      <c r="C192" t="s">
-        <v>196</v>
+        <v>137</v>
       </c>
     </row>
   </sheetData>

--- a/Plants Tool Material_Steven.xlsx
+++ b/Plants Tool Material_Steven.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\soras\Desktop\动森\改色\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\soras\Desktop\动森\套装\AnimalCrossing-Item-List\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0676B3ED-0A48-4644-B409-EB3D02E3F671}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A83EA5E-C0C9-4981-838E-F09EF6A468FF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1830" yWindow="4545" windowWidth="16365" windowHeight="11595" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,14 +25,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="159">
   <si>
     <t>No</t>
   </si>
   <si>
-    <t>Type</t>
-  </si>
-  <si>
     <t>Name</t>
   </si>
   <si>
@@ -60,9 +57,6 @@
     <t>bamboo shoot</t>
   </si>
   <si>
-    <t>clump of weeds</t>
-  </si>
-  <si>
     <t>red-cosmos bag</t>
   </si>
   <si>
@@ -246,9 +240,6 @@
     <t>Sagittarius fragment</t>
   </si>
   <si>
-    <t>communicator part</t>
-  </si>
-  <si>
     <t>rusted part</t>
   </si>
   <si>
@@ -454,6 +445,63 @@
   </si>
   <si>
     <t>heart crystal</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>wedding wand</t>
+  </si>
+  <si>
+    <t>worn axe</t>
+  </si>
+  <si>
+    <t>tambourine</t>
+  </si>
+  <si>
+    <t>pan flute</t>
+  </si>
+  <si>
+    <t>ocarina</t>
+  </si>
+  <si>
+    <t>light stick</t>
+  </si>
+  <si>
+    <t>old tire</t>
+  </si>
+  <si>
+    <t>pearl</t>
+  </si>
+  <si>
+    <t>Shell</t>
+  </si>
+  <si>
+    <t>sea snail</t>
+  </si>
+  <si>
+    <t>venus comb</t>
+  </si>
+  <si>
+    <t>conch</t>
+  </si>
+  <si>
+    <t>sand dollar</t>
+  </si>
+  <si>
+    <t>coral</t>
+  </si>
+  <si>
+    <t>giant clam</t>
+  </si>
+  <si>
+    <t>cowrie</t>
+  </si>
+  <si>
+    <t>manila clam</t>
+  </si>
+  <si>
+    <t>summer shell</t>
   </si>
 </sst>
 </file>
@@ -778,10 +826,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C138"/>
+  <dimension ref="A1:C153"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:C138"/>
+    <sheetView tabSelected="1" topLeftCell="A139" workbookViewId="0">
+      <selection sqref="A1:C153"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -796,1517 +844,1682 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>4588</v>
+        <v>6254</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>78</v>
       </c>
       <c r="C2" t="s">
-        <v>4</v>
+        <v>79</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>4589</v>
+        <v>6255</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>78</v>
       </c>
       <c r="C3" t="s">
-        <v>5</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>4590</v>
+        <v>6256</v>
       </c>
       <c r="B4" t="s">
-        <v>3</v>
+        <v>78</v>
       </c>
       <c r="C4" t="s">
-        <v>6</v>
+        <v>81</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>4591</v>
+        <v>6257</v>
       </c>
       <c r="B5" t="s">
-        <v>3</v>
+        <v>78</v>
       </c>
       <c r="C5" t="s">
-        <v>7</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>4592</v>
+        <v>6258</v>
       </c>
       <c r="B6" t="s">
-        <v>3</v>
+        <v>78</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>83</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>4593</v>
+        <v>6259</v>
       </c>
       <c r="B7" t="s">
-        <v>3</v>
+        <v>78</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>84</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>4594</v>
+        <v>6260</v>
       </c>
       <c r="B8" t="s">
-        <v>3</v>
+        <v>78</v>
       </c>
       <c r="C8" t="s">
-        <v>10</v>
+        <v>85</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>4597</v>
+        <v>6261</v>
       </c>
       <c r="B9" t="s">
-        <v>3</v>
+        <v>78</v>
       </c>
       <c r="C9" t="s">
-        <v>11</v>
+        <v>86</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>4598</v>
+        <v>6262</v>
       </c>
       <c r="B10" t="s">
-        <v>3</v>
+        <v>78</v>
       </c>
       <c r="C10" t="s">
-        <v>12</v>
+        <v>87</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>4601</v>
+        <v>6263</v>
       </c>
       <c r="B11" t="s">
-        <v>3</v>
+        <v>78</v>
       </c>
       <c r="C11" t="s">
-        <v>13</v>
+        <v>88</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>4625</v>
+        <v>6264</v>
       </c>
       <c r="B12" t="s">
-        <v>3</v>
+        <v>78</v>
       </c>
       <c r="C12" t="s">
-        <v>14</v>
+        <v>89</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13">
-        <v>4638</v>
+        <v>6265</v>
       </c>
       <c r="B13" t="s">
-        <v>3</v>
+        <v>78</v>
       </c>
       <c r="C13" t="s">
-        <v>15</v>
+        <v>90</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14">
-        <v>4642</v>
+        <v>6266</v>
       </c>
       <c r="B14" t="s">
-        <v>3</v>
+        <v>78</v>
       </c>
       <c r="C14" t="s">
-        <v>16</v>
+        <v>91</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15">
-        <v>4646</v>
+        <v>6267</v>
       </c>
       <c r="B15" t="s">
-        <v>3</v>
+        <v>78</v>
       </c>
       <c r="C15" t="s">
-        <v>17</v>
+        <v>92</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16">
-        <v>4662</v>
+        <v>6268</v>
       </c>
       <c r="B16" t="s">
-        <v>3</v>
+        <v>78</v>
       </c>
       <c r="C16" t="s">
-        <v>18</v>
+        <v>93</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17">
-        <v>4666</v>
+        <v>6269</v>
       </c>
       <c r="B17" t="s">
-        <v>3</v>
+        <v>78</v>
       </c>
       <c r="C17" t="s">
-        <v>19</v>
+        <v>94</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18">
-        <v>4670</v>
+        <v>6270</v>
       </c>
       <c r="B18" t="s">
-        <v>3</v>
+        <v>78</v>
       </c>
       <c r="C18" t="s">
-        <v>20</v>
+        <v>95</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19">
-        <v>4683</v>
+        <v>6271</v>
       </c>
       <c r="B19" t="s">
-        <v>3</v>
+        <v>78</v>
       </c>
       <c r="C19" t="s">
-        <v>21</v>
+        <v>96</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20">
-        <v>4687</v>
+        <v>6272</v>
       </c>
       <c r="B20" t="s">
-        <v>3</v>
+        <v>78</v>
       </c>
       <c r="C20" t="s">
-        <v>22</v>
+        <v>97</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21">
-        <v>4691</v>
+        <v>6273</v>
       </c>
       <c r="B21" t="s">
-        <v>3</v>
+        <v>78</v>
       </c>
       <c r="C21" t="s">
-        <v>23</v>
+        <v>98</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22">
-        <v>4713</v>
+        <v>6274</v>
       </c>
       <c r="B22" t="s">
-        <v>3</v>
+        <v>78</v>
       </c>
       <c r="C22" t="s">
-        <v>24</v>
+        <v>99</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23">
-        <v>4717</v>
+        <v>6275</v>
       </c>
       <c r="B23" t="s">
-        <v>3</v>
+        <v>78</v>
       </c>
       <c r="C23" t="s">
-        <v>25</v>
+        <v>100</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24">
-        <v>4721</v>
+        <v>6276</v>
       </c>
       <c r="B24" t="s">
-        <v>3</v>
+        <v>78</v>
       </c>
       <c r="C24" t="s">
-        <v>26</v>
+        <v>101</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25">
-        <v>4733</v>
+        <v>6277</v>
       </c>
       <c r="B25" t="s">
-        <v>3</v>
+        <v>78</v>
       </c>
       <c r="C25" t="s">
-        <v>27</v>
+        <v>102</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26">
-        <v>4734</v>
+        <v>6278</v>
       </c>
       <c r="B26" t="s">
-        <v>3</v>
+        <v>78</v>
       </c>
       <c r="C26" t="s">
-        <v>28</v>
+        <v>103</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27">
-        <v>4735</v>
+        <v>6280</v>
       </c>
       <c r="B27" t="s">
-        <v>3</v>
+        <v>78</v>
       </c>
       <c r="C27" t="s">
-        <v>29</v>
+        <v>104</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28">
-        <v>4736</v>
+        <v>6281</v>
       </c>
       <c r="B28" t="s">
-        <v>3</v>
+        <v>78</v>
       </c>
       <c r="C28" t="s">
-        <v>30</v>
+        <v>105</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29">
-        <v>4737</v>
+        <v>6282</v>
       </c>
       <c r="B29" t="s">
-        <v>3</v>
+        <v>78</v>
       </c>
       <c r="C29" t="s">
-        <v>31</v>
+        <v>106</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30">
-        <v>4764</v>
+        <v>6283</v>
       </c>
       <c r="B30" t="s">
-        <v>3</v>
+        <v>78</v>
       </c>
       <c r="C30" t="s">
-        <v>32</v>
+        <v>107</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31">
-        <v>4768</v>
+        <v>6284</v>
       </c>
       <c r="B31" t="s">
-        <v>3</v>
+        <v>78</v>
       </c>
       <c r="C31" t="s">
-        <v>33</v>
+        <v>108</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32">
-        <v>4778</v>
+        <v>6285</v>
       </c>
       <c r="B32" t="s">
-        <v>3</v>
+        <v>78</v>
       </c>
       <c r="C32" t="s">
-        <v>34</v>
+        <v>109</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33">
-        <v>4785</v>
+        <v>6287</v>
       </c>
       <c r="B33" t="s">
-        <v>3</v>
+        <v>78</v>
       </c>
       <c r="C33" t="s">
-        <v>35</v>
+        <v>110</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34">
-        <v>4789</v>
+        <v>6288</v>
       </c>
       <c r="B34" t="s">
-        <v>3</v>
+        <v>78</v>
       </c>
       <c r="C34" t="s">
-        <v>36</v>
+        <v>111</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35">
-        <v>4799</v>
+        <v>6289</v>
       </c>
       <c r="B35" t="s">
-        <v>3</v>
+        <v>78</v>
       </c>
       <c r="C35" t="s">
-        <v>37</v>
+        <v>112</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36">
-        <v>4809</v>
+        <v>6290</v>
       </c>
       <c r="B36" t="s">
-        <v>3</v>
+        <v>78</v>
       </c>
       <c r="C36" t="s">
-        <v>38</v>
+        <v>113</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37">
-        <v>4813</v>
+        <v>6291</v>
       </c>
       <c r="B37" t="s">
-        <v>3</v>
+        <v>78</v>
       </c>
       <c r="C37" t="s">
-        <v>39</v>
+        <v>114</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38">
-        <v>4823</v>
+        <v>6292</v>
       </c>
       <c r="B38" t="s">
-        <v>3</v>
+        <v>78</v>
       </c>
       <c r="C38" t="s">
-        <v>40</v>
+        <v>115</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39">
-        <v>5437</v>
+        <v>6293</v>
       </c>
       <c r="B39" t="s">
-        <v>41</v>
+        <v>78</v>
       </c>
       <c r="C39" t="s">
-        <v>42</v>
+        <v>116</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40">
-        <v>5438</v>
+        <v>6295</v>
       </c>
       <c r="B40" t="s">
-        <v>41</v>
+        <v>78</v>
       </c>
       <c r="C40" t="s">
-        <v>43</v>
+        <v>117</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41">
-        <v>5439</v>
+        <v>6296</v>
       </c>
       <c r="B41" t="s">
-        <v>41</v>
+        <v>78</v>
       </c>
       <c r="C41" t="s">
-        <v>44</v>
+        <v>118</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42">
-        <v>5440</v>
+        <v>6297</v>
       </c>
       <c r="B42" t="s">
-        <v>41</v>
+        <v>78</v>
       </c>
       <c r="C42" t="s">
-        <v>45</v>
+        <v>119</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43">
-        <v>5441</v>
+        <v>6298</v>
       </c>
       <c r="B43" t="s">
-        <v>41</v>
+        <v>78</v>
       </c>
       <c r="C43" t="s">
-        <v>46</v>
+        <v>120</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44">
-        <v>5442</v>
+        <v>6299</v>
       </c>
       <c r="B44" t="s">
-        <v>41</v>
+        <v>78</v>
       </c>
       <c r="C44" t="s">
-        <v>47</v>
+        <v>121</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45">
-        <v>5443</v>
+        <v>6300</v>
       </c>
       <c r="B45" t="s">
-        <v>41</v>
+        <v>78</v>
       </c>
       <c r="C45" t="s">
-        <v>48</v>
+        <v>122</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46">
-        <v>5444</v>
+        <v>6301</v>
       </c>
       <c r="B46" t="s">
-        <v>41</v>
+        <v>78</v>
       </c>
       <c r="C46" t="s">
-        <v>49</v>
+        <v>123</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47">
-        <v>5445</v>
+        <v>6302</v>
       </c>
       <c r="B47" t="s">
-        <v>41</v>
+        <v>78</v>
       </c>
       <c r="C47" t="s">
-        <v>50</v>
+        <v>124</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48">
-        <v>5446</v>
+        <v>6303</v>
       </c>
       <c r="B48" t="s">
-        <v>41</v>
+        <v>78</v>
       </c>
       <c r="C48" t="s">
-        <v>51</v>
+        <v>125</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49">
-        <v>5447</v>
+        <v>6304</v>
       </c>
       <c r="B49" t="s">
-        <v>41</v>
+        <v>78</v>
       </c>
       <c r="C49" t="s">
-        <v>52</v>
+        <v>126</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50">
-        <v>5448</v>
+        <v>6305</v>
       </c>
       <c r="B50" t="s">
-        <v>41</v>
+        <v>78</v>
       </c>
       <c r="C50" t="s">
-        <v>53</v>
+        <v>127</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51">
-        <v>5449</v>
+        <v>6306</v>
       </c>
       <c r="B51" t="s">
-        <v>41</v>
+        <v>78</v>
       </c>
       <c r="C51" t="s">
-        <v>54</v>
+        <v>128</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52">
-        <v>5450</v>
+        <v>6307</v>
       </c>
       <c r="B52" t="s">
-        <v>41</v>
+        <v>78</v>
       </c>
       <c r="C52" t="s">
-        <v>55</v>
+        <v>129</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53">
-        <v>5451</v>
+        <v>6308</v>
       </c>
       <c r="B53" t="s">
-        <v>41</v>
+        <v>78</v>
       </c>
       <c r="C53" t="s">
-        <v>56</v>
+        <v>130</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54">
-        <v>5452</v>
+        <v>6309</v>
       </c>
       <c r="B54" t="s">
-        <v>41</v>
+        <v>78</v>
       </c>
       <c r="C54" t="s">
-        <v>57</v>
+        <v>131</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55">
-        <v>5453</v>
+        <v>6310</v>
       </c>
       <c r="B55" t="s">
-        <v>41</v>
+        <v>78</v>
       </c>
       <c r="C55" t="s">
-        <v>58</v>
+        <v>132</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56">
-        <v>5454</v>
+        <v>6311</v>
       </c>
       <c r="B56" t="s">
-        <v>41</v>
+        <v>78</v>
       </c>
       <c r="C56" t="s">
-        <v>59</v>
+        <v>133</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57">
-        <v>5455</v>
+        <v>6312</v>
       </c>
       <c r="B57" t="s">
-        <v>41</v>
+        <v>78</v>
       </c>
       <c r="C57" t="s">
-        <v>60</v>
+        <v>134</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58">
-        <v>5456</v>
+        <v>8857</v>
       </c>
       <c r="B58" t="s">
-        <v>41</v>
+        <v>78</v>
       </c>
       <c r="C58" t="s">
-        <v>61</v>
+        <v>141</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59">
-        <v>5457</v>
+        <v>8858</v>
       </c>
       <c r="B59" t="s">
-        <v>41</v>
+        <v>78</v>
       </c>
       <c r="C59" t="s">
-        <v>62</v>
+        <v>142</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60">
-        <v>5458</v>
+        <v>9032</v>
       </c>
       <c r="B60" t="s">
-        <v>41</v>
+        <v>78</v>
       </c>
       <c r="C60" t="s">
-        <v>63</v>
+        <v>143</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61">
-        <v>5459</v>
+        <v>9033</v>
       </c>
       <c r="B61" t="s">
-        <v>41</v>
+        <v>78</v>
       </c>
       <c r="C61" t="s">
-        <v>64</v>
+        <v>144</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62">
-        <v>5460</v>
+        <v>9034</v>
       </c>
       <c r="B62" t="s">
-        <v>41</v>
+        <v>78</v>
       </c>
       <c r="C62" t="s">
-        <v>65</v>
+        <v>145</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63">
-        <v>5461</v>
+        <v>9036</v>
       </c>
       <c r="B63" t="s">
-        <v>41</v>
+        <v>78</v>
       </c>
       <c r="C63" t="s">
-        <v>66</v>
+        <v>146</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64">
-        <v>5462</v>
+        <v>4588</v>
       </c>
       <c r="B64" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C64" t="s">
-        <v>67</v>
+        <v>3</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65">
-        <v>5463</v>
+        <v>4589</v>
       </c>
       <c r="B65" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C65" t="s">
-        <v>68</v>
+        <v>4</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66">
-        <v>5464</v>
+        <v>4590</v>
       </c>
       <c r="B66" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C66" t="s">
-        <v>69</v>
+        <v>5</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67">
-        <v>5465</v>
+        <v>4591</v>
       </c>
       <c r="B67" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C67" t="s">
-        <v>70</v>
+        <v>6</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68">
-        <v>5466</v>
+        <v>4592</v>
       </c>
       <c r="B68" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C68" t="s">
-        <v>71</v>
+        <v>7</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69">
-        <v>5467</v>
+        <v>4593</v>
       </c>
       <c r="B69" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C69" t="s">
-        <v>72</v>
+        <v>8</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70">
-        <v>5468</v>
+        <v>4594</v>
       </c>
       <c r="B70" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C70" t="s">
-        <v>73</v>
+        <v>9</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71">
-        <v>5469</v>
+        <v>4733</v>
       </c>
       <c r="B71" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C71" t="s">
-        <v>74</v>
+        <v>25</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72">
-        <v>5470</v>
+        <v>4734</v>
       </c>
       <c r="B72" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C72" t="s">
-        <v>75</v>
+        <v>26</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73">
-        <v>5471</v>
+        <v>4735</v>
       </c>
       <c r="B73" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C73" t="s">
-        <v>76</v>
+        <v>27</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A74">
-        <v>5472</v>
+        <v>4736</v>
       </c>
       <c r="B74" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C74" t="s">
-        <v>77</v>
+        <v>28</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A75">
-        <v>5473</v>
+        <v>4737</v>
       </c>
       <c r="B75" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C75" t="s">
-        <v>78</v>
+        <v>29</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A76">
-        <v>5474</v>
+        <v>5437</v>
       </c>
       <c r="B76" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C76" t="s">
-        <v>79</v>
+        <v>40</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A77">
-        <v>5475</v>
+        <v>5438</v>
       </c>
       <c r="B77" t="s">
+        <v>39</v>
+      </c>
+      <c r="C77" t="s">
         <v>41</v>
-      </c>
-      <c r="C77" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A78">
-        <v>8840</v>
+        <v>5439</v>
       </c>
       <c r="B78" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C78" t="s">
-        <v>138</v>
+        <v>42</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A79">
-        <v>8841</v>
+        <v>5440</v>
       </c>
       <c r="B79" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C79" t="s">
-        <v>139</v>
+        <v>43</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A80">
-        <v>8842</v>
+        <v>5441</v>
       </c>
       <c r="B80" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C80" t="s">
-        <v>140</v>
+        <v>44</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A81">
-        <v>8843</v>
+        <v>5442</v>
       </c>
       <c r="B81" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C81" t="s">
-        <v>141</v>
+        <v>45</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A82">
-        <v>8845</v>
+        <v>5443</v>
       </c>
       <c r="B82" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C82" t="s">
-        <v>142</v>
+        <v>46</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A83">
-        <v>6254</v>
+        <v>5444</v>
       </c>
       <c r="B83" t="s">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="C83" t="s">
-        <v>82</v>
+        <v>47</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A84">
-        <v>6255</v>
+        <v>5445</v>
       </c>
       <c r="B84" t="s">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="C84" t="s">
-        <v>83</v>
+        <v>48</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A85">
-        <v>6256</v>
+        <v>5446</v>
       </c>
       <c r="B85" t="s">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="C85" t="s">
-        <v>84</v>
+        <v>49</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A86">
-        <v>6257</v>
+        <v>5447</v>
       </c>
       <c r="B86" t="s">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="C86" t="s">
-        <v>85</v>
+        <v>50</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A87">
-        <v>6258</v>
+        <v>5448</v>
       </c>
       <c r="B87" t="s">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="C87" t="s">
-        <v>86</v>
+        <v>51</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A88">
-        <v>6259</v>
+        <v>5449</v>
       </c>
       <c r="B88" t="s">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="C88" t="s">
-        <v>87</v>
+        <v>52</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A89">
-        <v>6260</v>
+        <v>5450</v>
       </c>
       <c r="B89" t="s">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="C89" t="s">
-        <v>88</v>
+        <v>53</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A90">
-        <v>6261</v>
+        <v>5451</v>
       </c>
       <c r="B90" t="s">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="C90" t="s">
-        <v>89</v>
+        <v>54</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A91">
-        <v>6262</v>
+        <v>5452</v>
       </c>
       <c r="B91" t="s">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="C91" t="s">
-        <v>90</v>
+        <v>55</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A92">
-        <v>6263</v>
+        <v>5453</v>
       </c>
       <c r="B92" t="s">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="C92" t="s">
-        <v>91</v>
+        <v>56</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A93">
-        <v>6264</v>
+        <v>5454</v>
       </c>
       <c r="B93" t="s">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="C93" t="s">
-        <v>92</v>
+        <v>57</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A94">
-        <v>6265</v>
+        <v>5455</v>
       </c>
       <c r="B94" t="s">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="C94" t="s">
-        <v>93</v>
+        <v>58</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A95">
-        <v>6266</v>
+        <v>5456</v>
       </c>
       <c r="B95" t="s">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="C95" t="s">
-        <v>94</v>
+        <v>59</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A96">
-        <v>6267</v>
+        <v>5457</v>
       </c>
       <c r="B96" t="s">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="C96" t="s">
-        <v>95</v>
+        <v>60</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A97">
-        <v>6268</v>
+        <v>5458</v>
       </c>
       <c r="B97" t="s">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="C97" t="s">
-        <v>96</v>
+        <v>61</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A98">
-        <v>6269</v>
+        <v>5459</v>
       </c>
       <c r="B98" t="s">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="C98" t="s">
-        <v>97</v>
+        <v>62</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A99">
-        <v>6270</v>
+        <v>5460</v>
       </c>
       <c r="B99" t="s">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="C99" t="s">
-        <v>98</v>
+        <v>63</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A100">
-        <v>6271</v>
+        <v>5461</v>
       </c>
       <c r="B100" t="s">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="C100" t="s">
-        <v>99</v>
+        <v>64</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A101">
-        <v>6272</v>
+        <v>5462</v>
       </c>
       <c r="B101" t="s">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="C101" t="s">
-        <v>100</v>
+        <v>65</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A102">
-        <v>6273</v>
+        <v>5463</v>
       </c>
       <c r="B102" t="s">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="C102" t="s">
-        <v>101</v>
+        <v>66</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A103">
-        <v>6274</v>
+        <v>5464</v>
       </c>
       <c r="B103" t="s">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="C103" t="s">
-        <v>102</v>
+        <v>67</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A104">
-        <v>6275</v>
+        <v>5465</v>
       </c>
       <c r="B104" t="s">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="C104" t="s">
-        <v>103</v>
+        <v>68</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A105">
-        <v>6276</v>
+        <v>5466</v>
       </c>
       <c r="B105" t="s">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="C105" t="s">
-        <v>104</v>
+        <v>69</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A106">
-        <v>6277</v>
+        <v>5467</v>
       </c>
       <c r="B106" t="s">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="C106" t="s">
-        <v>105</v>
+        <v>70</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A107">
-        <v>6278</v>
+        <v>5469</v>
       </c>
       <c r="B107" t="s">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="C107" t="s">
-        <v>106</v>
+        <v>71</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A108">
-        <v>6280</v>
+        <v>5470</v>
       </c>
       <c r="B108" t="s">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="C108" t="s">
-        <v>107</v>
+        <v>72</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A109">
-        <v>6281</v>
+        <v>5471</v>
       </c>
       <c r="B109" t="s">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="C109" t="s">
-        <v>108</v>
+        <v>73</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A110">
-        <v>6282</v>
+        <v>5472</v>
       </c>
       <c r="B110" t="s">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="C110" t="s">
-        <v>109</v>
+        <v>74</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A111">
-        <v>6283</v>
+        <v>5473</v>
       </c>
       <c r="B111" t="s">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="C111" t="s">
-        <v>110</v>
+        <v>75</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A112">
-        <v>6284</v>
+        <v>5474</v>
       </c>
       <c r="B112" t="s">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="C112" t="s">
-        <v>111</v>
+        <v>76</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A113">
-        <v>6285</v>
+        <v>5475</v>
       </c>
       <c r="B113" t="s">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="C113" t="s">
-        <v>112</v>
+        <v>77</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A114">
-        <v>6287</v>
+        <v>8840</v>
       </c>
       <c r="B114" t="s">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="C114" t="s">
-        <v>113</v>
+        <v>135</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A115">
-        <v>6288</v>
+        <v>8841</v>
       </c>
       <c r="B115" t="s">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="C115" t="s">
-        <v>114</v>
+        <v>136</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A116">
-        <v>6289</v>
+        <v>8842</v>
       </c>
       <c r="B116" t="s">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="C116" t="s">
-        <v>115</v>
+        <v>137</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A117">
-        <v>6290</v>
+        <v>8843</v>
       </c>
       <c r="B117" t="s">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="C117" t="s">
-        <v>116</v>
+        <v>138</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A118">
-        <v>6291</v>
+        <v>8845</v>
       </c>
       <c r="B118" t="s">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="C118" t="s">
-        <v>117</v>
+        <v>139</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A119">
-        <v>6292</v>
+        <v>9035</v>
       </c>
       <c r="B119" t="s">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="C119" t="s">
-        <v>118</v>
+        <v>147</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A120">
-        <v>6293</v>
+        <v>9118</v>
       </c>
       <c r="B120" t="s">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="C120" t="s">
-        <v>119</v>
+        <v>148</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A121">
-        <v>6295</v>
+        <v>4598</v>
       </c>
       <c r="B121" t="s">
-        <v>81</v>
+        <v>2</v>
       </c>
       <c r="C121" t="s">
-        <v>120</v>
+        <v>10</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A122">
-        <v>6296</v>
+        <v>4601</v>
       </c>
       <c r="B122" t="s">
-        <v>81</v>
+        <v>2</v>
       </c>
       <c r="C122" t="s">
-        <v>121</v>
+        <v>11</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A123">
-        <v>6297</v>
+        <v>4625</v>
       </c>
       <c r="B123" t="s">
-        <v>81</v>
+        <v>2</v>
       </c>
       <c r="C123" t="s">
-        <v>122</v>
+        <v>12</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A124">
-        <v>6298</v>
+        <v>4638</v>
       </c>
       <c r="B124" t="s">
-        <v>81</v>
+        <v>2</v>
       </c>
       <c r="C124" t="s">
-        <v>123</v>
+        <v>13</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A125">
-        <v>6299</v>
+        <v>4642</v>
       </c>
       <c r="B125" t="s">
-        <v>81</v>
+        <v>2</v>
       </c>
       <c r="C125" t="s">
-        <v>124</v>
+        <v>14</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A126">
-        <v>6300</v>
+        <v>4646</v>
       </c>
       <c r="B126" t="s">
-        <v>81</v>
+        <v>2</v>
       </c>
       <c r="C126" t="s">
-        <v>125</v>
+        <v>15</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A127">
-        <v>6301</v>
+        <v>4662</v>
       </c>
       <c r="B127" t="s">
-        <v>81</v>
+        <v>2</v>
       </c>
       <c r="C127" t="s">
-        <v>126</v>
+        <v>16</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A128">
-        <v>6302</v>
+        <v>4666</v>
       </c>
       <c r="B128" t="s">
-        <v>81</v>
+        <v>2</v>
       </c>
       <c r="C128" t="s">
-        <v>127</v>
+        <v>17</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A129">
-        <v>6303</v>
+        <v>4670</v>
       </c>
       <c r="B129" t="s">
-        <v>81</v>
+        <v>2</v>
       </c>
       <c r="C129" t="s">
-        <v>128</v>
+        <v>18</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A130">
-        <v>6304</v>
+        <v>4683</v>
       </c>
       <c r="B130" t="s">
-        <v>81</v>
+        <v>2</v>
       </c>
       <c r="C130" t="s">
-        <v>129</v>
+        <v>19</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A131">
-        <v>6305</v>
+        <v>4687</v>
       </c>
       <c r="B131" t="s">
-        <v>81</v>
+        <v>2</v>
       </c>
       <c r="C131" t="s">
-        <v>130</v>
+        <v>20</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A132">
-        <v>6306</v>
+        <v>4691</v>
       </c>
       <c r="B132" t="s">
-        <v>81</v>
+        <v>2</v>
       </c>
       <c r="C132" t="s">
-        <v>131</v>
+        <v>21</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A133">
-        <v>6307</v>
+        <v>4713</v>
       </c>
       <c r="B133" t="s">
-        <v>81</v>
+        <v>2</v>
       </c>
       <c r="C133" t="s">
-        <v>132</v>
+        <v>22</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A134">
-        <v>6308</v>
+        <v>4717</v>
       </c>
       <c r="B134" t="s">
-        <v>81</v>
+        <v>2</v>
       </c>
       <c r="C134" t="s">
-        <v>133</v>
+        <v>23</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A135">
-        <v>6309</v>
+        <v>4721</v>
       </c>
       <c r="B135" t="s">
-        <v>81</v>
+        <v>2</v>
       </c>
       <c r="C135" t="s">
-        <v>134</v>
+        <v>24</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A136">
-        <v>6310</v>
+        <v>4764</v>
       </c>
       <c r="B136" t="s">
-        <v>81</v>
+        <v>2</v>
       </c>
       <c r="C136" t="s">
-        <v>135</v>
+        <v>30</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A137">
-        <v>6311</v>
+        <v>4768</v>
       </c>
       <c r="B137" t="s">
-        <v>81</v>
+        <v>2</v>
       </c>
       <c r="C137" t="s">
-        <v>136</v>
+        <v>31</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A138">
-        <v>6312</v>
+        <v>4778</v>
       </c>
       <c r="B138" t="s">
-        <v>81</v>
+        <v>2</v>
       </c>
       <c r="C138" t="s">
-        <v>137</v>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A139">
+        <v>4785</v>
+      </c>
+      <c r="B139" t="s">
+        <v>2</v>
+      </c>
+      <c r="C139" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A140">
+        <v>4789</v>
+      </c>
+      <c r="B140" t="s">
+        <v>2</v>
+      </c>
+      <c r="C140" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A141">
+        <v>4799</v>
+      </c>
+      <c r="B141" t="s">
+        <v>2</v>
+      </c>
+      <c r="C141" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A142">
+        <v>4809</v>
+      </c>
+      <c r="B142" t="s">
+        <v>2</v>
+      </c>
+      <c r="C142" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A143">
+        <v>4813</v>
+      </c>
+      <c r="B143" t="s">
+        <v>2</v>
+      </c>
+      <c r="C143" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A144">
+        <v>4823</v>
+      </c>
+      <c r="B144" t="s">
+        <v>2</v>
+      </c>
+      <c r="C144" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A145">
+        <v>4570</v>
+      </c>
+      <c r="B145" t="s">
+        <v>149</v>
+      </c>
+      <c r="C145" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A146">
+        <v>4571</v>
+      </c>
+      <c r="B146" t="s">
+        <v>149</v>
+      </c>
+      <c r="C146" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A147">
+        <v>4572</v>
+      </c>
+      <c r="B147" t="s">
+        <v>149</v>
+      </c>
+      <c r="C147" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A148">
+        <v>4573</v>
+      </c>
+      <c r="B148" t="s">
+        <v>149</v>
+      </c>
+      <c r="C148" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A149">
+        <v>4574</v>
+      </c>
+      <c r="B149" t="s">
+        <v>149</v>
+      </c>
+      <c r="C149" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A150">
+        <v>4575</v>
+      </c>
+      <c r="B150" t="s">
+        <v>149</v>
+      </c>
+      <c r="C150" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A151">
+        <v>4576</v>
+      </c>
+      <c r="B151" t="s">
+        <v>149</v>
+      </c>
+      <c r="C151" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A152">
+        <v>4577</v>
+      </c>
+      <c r="B152" t="s">
+        <v>149</v>
+      </c>
+      <c r="C152" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A153">
+        <v>4578</v>
+      </c>
+      <c r="B153" t="s">
+        <v>149</v>
+      </c>
+      <c r="C153" t="s">
+        <v>158</v>
       </c>
     </row>
   </sheetData>
